--- a/results/strategy performance.xlsx
+++ b/results/strategy performance.xlsx
@@ -4,11 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
-    <sheet name="1-1" sheetId="4" r:id="rId1"/>
-    <sheet name="2-1" sheetId="6" r:id="rId2"/>
+    <sheet name="Progress" sheetId="8" r:id="rId1"/>
+    <sheet name="1.1" sheetId="4" r:id="rId2"/>
+    <sheet name="2.1" sheetId="6" r:id="rId3"/>
+    <sheet name="2.2" sheetId="7" r:id="rId4"/>
+    <sheet name="2.3" sheetId="9" r:id="rId5"/>
+    <sheet name="3.1" sheetId="10" r:id="rId6"/>
+    <sheet name="4.1" sheetId="11" r:id="rId7"/>
+    <sheet name="2.4" sheetId="12" r:id="rId8"/>
+    <sheet name="2.5.0" sheetId="13" r:id="rId9"/>
+    <sheet name="2.5.1" sheetId="14" r:id="rId10"/>
+    <sheet name="2.6.0" sheetId="15" r:id="rId11"/>
+    <sheet name="2.6.1" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="128">
   <si>
     <t>Strategy Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -50,10 +60,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Positive macd_hist and stoch_hist</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Bullish crossover within 2 days (Stochastic must cross before MACD)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -709,10 +715,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PSAR + ARX Strategy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>MACD + Stochastic double-cross strategy</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -747,13 +749,1630 @@
   </si>
   <si>
     <t>self.weight[code] = c1 * 0.4 + c2 * 0.3 + (c2 and c3) * 0.3</t>
+  </si>
+  <si>
+    <t>c1 * 0.5 + c2 * 0.3 + (c2 and c3) * 0.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>self.weight[code] = c1 * 0.5 + c2 * 0.3 + (c2 and c3) * 0.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strategy Code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strategy Code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rate of Return</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharpe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fitness</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turnover</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1 * 0.6 + c2 * 0.2 + (c2 and c3) * 0.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>str_timedelta(dt, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>psar:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    c2 = psar[dt] &lt; close[dt] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>psar[str_timedelta(dt, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)] &lt; close[dt]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c3 = adx[dt] &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+  </si>
+  <si>
+    <t>self.weight[code] = c1 * 0.6 + c2 * 0.2 + (c2 and c3) * 0.2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c2 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">False  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF7A7E85"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t># PSAR cross-over</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c4 = macd_hist[dt] &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">stoch_hist[dt] &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.weight[code] = c1 * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ c2 * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ (c2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c3) * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ c4 * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+  </si>
+  <si>
+    <t>c1 * 0.5 + c2 * 0.1 + (c2 and c3) * 0.2 * c4 * 0.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>macd_hist &gt; 0 and stoch_hist &gt; 0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSAR + ADX Strategy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSAR + ADX Strategy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSAR + MACD + ADX Strategy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSAR + Stochastic + ADX Strategy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c2 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">False  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF7A7E85"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t># Stochastic buy signal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>str_timedelta(dt, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>stoch_hist:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    c2 = c2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(stoch_hist[dt] &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt; stoch_hist[str_timedelta(dt, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c3 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">False  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF7A7E85"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t># Stochastic sell signal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c4 = adx[dt] &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+  </si>
+  <si>
+    <t>Buy Condition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stochastic buy signal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stochastic sell signal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adx &gt; 30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell Condition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    c3 = c3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(stoch_hist[dt] &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt; stoch_hist[str_timedelta(dt, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.weight[code] = c1 * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ c2 * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">- c3 * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ (c1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c4) * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>- ((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">not </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c4) * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+  </si>
+  <si>
+    <t>c1 * 0.6 + c2 * 0.2 - c3 * 0.3 + (c1 and c2 and c4) * 0.2 - (not c1 and c3 and c4) * 0.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    c2 = c2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(psar[dt] &lt; close[dt] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>psar[str_timedelta(dt, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)] &gt; close[str_timedelta(dt, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    c3 = c3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(psar[dt] &gt; close[dt] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>psar[str_timedelta(dt, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)] &lt; close[str_timedelta(dt, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)])</t>
+    </r>
+  </si>
+  <si>
+    <t>c4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c2 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">False  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF7A7E85"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t># buy signal</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c3 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">False  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF7A7E85"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t># sell signal</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.weight[code] = c1 * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ c2 * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">- c3 * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ (c1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c4) * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>- ((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">not </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c4) * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1 * 0.6 + c2 * 0.2 - c3 * 0.2 + (c1 and c2 and c4) * 0.2 - ((not c1) and c3 and c4) * 0.2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    c2 = c2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(psar[dt] &lt; close[dt] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>psar[str_timedelta(dt, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)] &lt; close[str_timedelta(dt, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)])</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    c3 = c3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(psar[dt] &gt; close[dt] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>psar[str_timedelta(dt, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)] &gt; close[str_timedelta(dt, -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)])</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawdown calculation fixed.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Returns</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drawdown</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Margin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5.1</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1 * 0.6 + c2 * 0.2 - c3 * 0.3 + (c1 and c2 and c4) * 0.2 - ((not c1) and c3 and c4) * 0.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.weight[code] = c1 * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ c2 * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">- c3 * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ (c1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c4) * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>- ((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">not </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c4) * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.3000000000000007"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+  </si>
+  <si>
+    <t>2.6.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSAR bullish trend continue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSAR bearish trend continue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <numFmts count="1">
+    <numFmt numFmtId="182" formatCode="0.000_);[Red]\(0.000\)"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,8 +2441,13 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -848,8 +2472,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -857,11 +2487,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -885,6 +2524,27 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="182" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1165,10 +2825,1297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F46"/>
+  <dimension ref="B2:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="13.25" style="24" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="20.58203125" customWidth="1"/>
+    <col min="5" max="8" width="20.58203125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="20.58203125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="20.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="26">
+        <v>45182</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="16">
+        <f t="array" ref="D3:J3">TRANSPOSE('1.1'!$C$15:$C$21)</f>
+        <v>3.8799E-2</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0.74509999999999998</v>
+      </c>
+      <c r="F3" s="22">
+        <v>1.431</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0.72519999999999996</v>
+      </c>
+      <c r="H3" s="22">
+        <v>1.94</v>
+      </c>
+      <c r="I3" s="27">
+        <v>7.5527999999999998E-2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="26"/>
+      <c r="C4" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="16">
+        <f t="array" ref="D4:J4">TRANSPOSE('2.1'!$C$15:$C$21)</f>
+        <v>3.9709000000000001E-2</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0.46050000000000002</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0.87170000000000003</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0.74439999999999995</v>
+      </c>
+      <c r="H4" s="22">
+        <v>1.9854000000000001</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0.14577300000000001</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="26"/>
+      <c r="C5" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="16">
+        <f t="array" ref="D5:J5">TRANSPOSE('2.2'!$C$15:$C$21)</f>
+        <v>5.5683999999999997E-2</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="G5" s="22">
+        <v>1.337</v>
+      </c>
+      <c r="H5" s="22">
+        <v>2.7841999999999998</v>
+      </c>
+      <c r="I5" s="27">
+        <v>0.263289</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="26">
+        <v>45183</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="array" ref="D6:J6">TRANSPOSE('2.3'!$C$15:$C$21)</f>
+        <v>5.5814000000000002E-2</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.5837</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.72740000000000005</v>
+      </c>
+      <c r="G6" s="22">
+        <v>1.3405</v>
+      </c>
+      <c r="H6" s="22">
+        <v>2.7907000000000002</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0.26305000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="26"/>
+      <c r="C7" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="array" ref="D7:J7">TRANSPOSE('3.1'!$C$15:$C$21)</f>
+        <v>4.8022000000000002E-2</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.64080000000000004</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.56430000000000002</v>
+      </c>
+      <c r="G7" s="22">
+        <v>1.7596000000000001</v>
+      </c>
+      <c r="H7" s="22">
+        <v>2.4011</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0.125858</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="26">
+        <v>45184</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="array" ref="D8:J8">TRANSPOSE('4.1'!$C$16:$C$22)</f>
+        <v>4.8099000000000003E-2</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.5776</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1.2853000000000001</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0.69689999999999996</v>
+      </c>
+      <c r="H8" s="22">
+        <v>2.4049999999999998</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0.100671</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="26"/>
+      <c r="C9" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="array" ref="D9:J9">TRANSPOSE('2.4'!$C$16:$C$22)</f>
+        <v>5.4316999999999997E-2</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.62150000000000005</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1.2054</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0.84970000000000001</v>
+      </c>
+      <c r="H9" s="22">
+        <v>2.7158000000000002</v>
+      </c>
+      <c r="I9" s="27">
+        <v>9.7677E-2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="26"/>
+      <c r="C10" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="array" ref="D10:J10">TRANSPOSE('2.5.0'!$C$16:$C$22)</f>
+        <v>7.8242000000000006E-2</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.73619999999999997</v>
+      </c>
+      <c r="G10" s="22">
+        <v>1.8806</v>
+      </c>
+      <c r="H10" s="22">
+        <v>3.9121000000000001</v>
+      </c>
+      <c r="I10" s="28">
+        <v>6.3492999999999994E-2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="26"/>
+      <c r="C11" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="16">
+        <f t="array" ref="D11:J11">TRANSPOSE('2.5.1'!$C$16:$C$22)</f>
+        <v>6.2022000000000001E-2</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.61780000000000002</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.71230000000000004</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1.5274000000000001</v>
+      </c>
+      <c r="H11" s="22">
+        <v>3.1011000000000002</v>
+      </c>
+      <c r="I11" s="29">
+        <v>6.1607000000000002E-2</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="26"/>
+      <c r="C12" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="16">
+        <f t="array" ref="D12:J12">TRANSPOSE('2.6.0'!$C$16:$C$22)</f>
+        <v>8.9203000000000005E-2</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.65659999999999996</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1.4626999999999999</v>
+      </c>
+      <c r="H12" s="22">
+        <v>4.4600999999999997</v>
+      </c>
+      <c r="I12" s="29">
+        <v>6.9539000000000004E-2</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="26"/>
+      <c r="C13" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="16">
+        <f t="array" ref="D13:J13">TRANSPOSE('2.6.1'!$C$16:$C$22)</f>
+        <v>7.0823999999999998E-2</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.58909999999999996</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0.91839999999999999</v>
+      </c>
+      <c r="G13" s="22">
+        <v>1.2071000000000001</v>
+      </c>
+      <c r="H13" s="22">
+        <v>3.5411999999999999</v>
+      </c>
+      <c r="I13" s="29">
+        <v>6.6892999999999994E-2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F9" sqref="F9:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="92.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.5">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="28">
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>31048</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.5">
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6.2022000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.61780000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.71230000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.5274000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.1011000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6.1607000000000002E-2</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="C23" s="17"/>
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="C24" s="17"/>
+      <c r="F24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="C25" s="17"/>
+      <c r="F25" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17">
+      <c r="C26" s="17"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="C27" s="17"/>
+      <c r="F27" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="C28" s="17"/>
+      <c r="F28" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="C29" s="17"/>
+      <c r="F29" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="C30" s="17"/>
+      <c r="F30" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="17">
+      <c r="C31" s="17"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="C32" s="17"/>
+      <c r="F32" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="17"/>
+      <c r="F33" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="17"/>
+      <c r="F34" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="17">
+      <c r="C35" s="17"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="17"/>
+      <c r="F36" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="F37" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="17">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="F39" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="F40" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="3:6" ht="17">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="3:6" ht="17">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="F47" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="92.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.5">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="28">
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>36526</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.5">
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8.9203000000000005E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.65659999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.4626999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4.4600999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6.9539000000000004E-2</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="C23" s="17"/>
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="C24" s="17"/>
+      <c r="F24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="C25" s="17"/>
+      <c r="F25" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17">
+      <c r="C26" s="17"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="C27" s="17"/>
+      <c r="F27" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="C28" s="17"/>
+      <c r="F28" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="C29" s="17"/>
+      <c r="F29" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="C30" s="17"/>
+      <c r="F30" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="17">
+      <c r="C31" s="17"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="C32" s="17"/>
+      <c r="F32" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="17"/>
+      <c r="F33" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="17"/>
+      <c r="F34" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="17">
+      <c r="C35" s="17"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="17"/>
+      <c r="F36" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="F37" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="17">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="F39" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="F40" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="3:6" ht="17">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="3:6" ht="17">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="F47" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="92.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.5">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="28">
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>31048</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.5">
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7">
+        <v>7.0823999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.58909999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.91839999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.2071000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.5411999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6.6892999999999994E-2</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="C23" s="17"/>
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="C24" s="17"/>
+      <c r="F24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="C25" s="17"/>
+      <c r="F25" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17">
+      <c r="C26" s="17"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="C27" s="17"/>
+      <c r="F27" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="C28" s="17"/>
+      <c r="F28" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="C29" s="17"/>
+      <c r="F29" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="C30" s="17"/>
+      <c r="F30" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="17">
+      <c r="C31" s="17"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="C32" s="17"/>
+      <c r="F32" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="17"/>
+      <c r="F33" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="17"/>
+      <c r="F34" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="17">
+      <c r="C35" s="17"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="17"/>
+      <c r="F36" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="F37" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="17">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="F39" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="F40" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="3:6" ht="17">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="3:6" ht="17">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="F47" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1183,252 +4130,260 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.5">
+      <c r="B7" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45182</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.5">
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2">
-        <v>31048</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>31048</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
         <v>0.06</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15.5">
-      <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3.8799E-2</v>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.5">
+      <c r="B14" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.74509999999999998</v>
+        <v>16</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3.8799E-2</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>1.431</v>
+        <v>0.74509999999999998</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>0.72519999999999996</v>
+        <v>1.431</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>1.94</v>
+        <v>0.72519999999999996</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="7">
-        <v>7.5527999999999998E-2</v>
+      <c r="C19" s="1">
+        <v>1.94</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="F22" s="1" t="s">
-        <v>43</v>
+      <c r="C20" s="7">
+        <v>7.5527999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="F24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="F25" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
-      <c r="F24" s="9" t="s">
+    <row r="26" spans="2:6" ht="17">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="F27" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="17">
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="F26" s="8" t="s">
+    <row r="28" spans="2:6">
+      <c r="F28" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
-      <c r="F27" s="9" t="s">
+    <row r="29" spans="2:6">
+      <c r="F29" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
-      <c r="F28" s="11" t="s">
+    <row r="30" spans="2:6">
+      <c r="F30" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
-      <c r="F29" s="9" t="s">
+    <row r="31" spans="2:6" ht="17">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="F32" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="17">
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="F31" s="9" t="s">
+    <row r="33" spans="6:6">
+      <c r="F33" s="11" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="F32" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="6:6">
-      <c r="F35" s="11" t="s">
+    <row r="37" spans="6:6">
+      <c r="F37" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="6:6">
-      <c r="F36" s="9" t="s">
+    <row r="38" spans="6:6">
+      <c r="F38" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="6:6">
-      <c r="F37" s="11" t="s">
+    <row r="39" spans="6:6" ht="17">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="6:6" ht="17">
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="6:6">
-      <c r="F39" s="8" t="s">
+    <row r="41" spans="6:6">
+      <c r="F41" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="6:6">
-      <c r="F40" s="9" t="s">
+    <row r="42" spans="6:6" ht="17">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="6:6" ht="17">
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="6:6">
-      <c r="F42" s="8" t="s">
+    <row r="44" spans="6:6">
+      <c r="F44" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="6:6">
-      <c r="F43" s="9" t="s">
+    <row r="45" spans="6:6" ht="17">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="6:6" ht="17">
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="6:6">
-      <c r="F45" s="8" t="s">
+    <row r="47" spans="6:6">
+      <c r="F47" s="12" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="6:6">
-      <c r="F46" s="12" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1438,12 +4393,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F46"/>
+  <dimension ref="B2:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1458,231 +4413,1923 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.5">
+      <c r="B7" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45182</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.5">
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2">
-        <v>31048</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>31048</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
         <v>0.06</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="13" spans="2:6" ht="15.5">
-      <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3.9709000000000001E-2</v>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="14" spans="2:6" ht="15.5">
+      <c r="B14" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.46050000000000002</v>
+        <v>16</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3.9709000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>0.87170000000000003</v>
+        <v>0.46050000000000002</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>0.74439999999999995</v>
+        <v>0.87170000000000003</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>1.9854000000000001</v>
+        <v>0.74439999999999995</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.14577300000000001</v>
+      <c r="C19" s="1">
+        <v>1.9854000000000001</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="C20" s="7">
+        <v>0.14577300000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="F24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="F25" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="F27" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="F28" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="F29" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="F30" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="17">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="F32" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="6:6" ht="17">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="6:6" ht="17">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="6:6" ht="17">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="81.08203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.5">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>31048</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="14" spans="2:6" ht="15.5">
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5.5683999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.72760000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.337</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.7841999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.263289</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="F24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="F25" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="F27" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="F28" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="F29" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="F30" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="17">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="F32" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="6:6" ht="17">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="6:6" ht="17">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="6:6" ht="17">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="81.08203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.5">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>31048</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="14" spans="2:6" ht="15.5">
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5.5814000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.5837</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.72740000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.3405</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.7907000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.26305000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="F24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="F25" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="F27" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="F28" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="F29" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="F30" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="17">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="F32" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="6:6" ht="17">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="6:6" ht="17">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="6:6" ht="17">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="81.08203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.5">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>31048</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.5">
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4.8022000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.64080000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.56430000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.7596000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.4011</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.125858</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="F24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="F25" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="F27" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="F28" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="F29" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="F30" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="17">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="F32" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" ht="17">
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" ht="17">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="6:6" ht="17">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="6:6" ht="17">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="93.58203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.5">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43831</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.5">
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4.8099000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.5776</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.2853000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.69689999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.4049999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.100671</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="F22" s="1" t="s">
-        <v>43</v>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="F23" s="8" t="s">
-        <v>24</v>
+      <c r="F23" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="F24" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="17">
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="F26" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="F24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="F25" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17">
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="F27" s="9" t="s">
-        <v>51</v>
+      <c r="F27" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="F28" s="11" t="s">
-        <v>52</v>
+      <c r="F28" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="F29" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="17">
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="F31" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="F29" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="F30" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="17">
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="F32" s="11" t="s">
-        <v>54</v>
+      <c r="F32" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="6:6">
-      <c r="F33" s="9"/>
+      <c r="F33" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6">
-      <c r="F35" s="11" t="s">
-        <v>55</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" ht="17">
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="6:6">
-      <c r="F36" s="9"/>
+      <c r="F36" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="37" spans="6:6">
-      <c r="F37" s="11"/>
+      <c r="F37" s="9" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="38" spans="6:6" ht="17">
       <c r="F38" s="10"/>
     </row>
     <row r="39" spans="6:6">
-      <c r="F39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="40" spans="6:6">
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="6:6" ht="17">
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="6:6">
-      <c r="F42" s="8"/>
+      <c r="F40" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="6:6" ht="17">
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="6:6">
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" spans="6:6" ht="17">
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="6:6">
-      <c r="F45" s="8"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="6:6" ht="17">
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="6:6">
-      <c r="F46" s="12"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="81.08203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.5">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>36526</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.5">
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5.4316999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.62150000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.2054</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.84970000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.7158000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7">
+        <v>9.7677E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="C23" s="17"/>
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="C24" s="17"/>
+      <c r="F24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="C25" s="17"/>
+      <c r="F25" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17">
+      <c r="C26" s="17"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="C27" s="17"/>
+      <c r="F27" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="C28" s="17"/>
+      <c r="F28" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="C29" s="17"/>
+      <c r="F29" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="C30" s="17"/>
+      <c r="F30" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="17">
+      <c r="C31" s="17"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="C32" s="17"/>
+      <c r="F32" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="17"/>
+      <c r="F33" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="17"/>
+      <c r="F34" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="17">
+      <c r="C35" s="17"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="17"/>
+      <c r="F36" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="F37" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="17">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="F39" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="F40" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="3:6" ht="17">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="3:6" ht="17">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="F47" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="92.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.5">
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="28">
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>36526</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.5">
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7">
+        <v>7.8242000000000006E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.73619999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.8806</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.9121000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6.3492999999999994E-2</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="C23" s="17"/>
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="C24" s="17"/>
+      <c r="F24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="C25" s="17"/>
+      <c r="F25" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17">
+      <c r="C26" s="17"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="C27" s="17"/>
+      <c r="F27" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="C28" s="17"/>
+      <c r="F28" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="C29" s="17"/>
+      <c r="F29" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="C30" s="17"/>
+      <c r="F30" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="17">
+      <c r="C31" s="17"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="C32" s="17"/>
+      <c r="F32" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="17"/>
+      <c r="F33" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="17"/>
+      <c r="F34" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="17">
+      <c r="C35" s="17"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="17"/>
+      <c r="F36" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="F37" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="17">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="F39" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="F40" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="3:6" ht="17">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="3:6" ht="17">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="F47" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
